--- a/biology/Médecine/1427_en_santé_et_médecine/1427_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1427_en_santé_et_médecine/1427_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1427_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1427_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1427 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1427_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1427_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À Hérat, au Khorassan, les médecins Mowlânâ Shams al-Din Mohammad Adam et Mowlânâ Nezâm al-Din Shirâzi Ṭabib soignent avec succès Baysonghor, fils de Shahrokh et petit-fils de Tamerlan[1].
-Fondation de l'Hospitale unum magnum et universale, aujourd'hui hôpital civil (it) de Brescia, en Lombardie[2].
-On compte au moins quatre cents enfants abandonnés dans les hôpitaux de San Gallo et de la Scala à Florence[3].
-Avant 1427 : destruction de l'hôpital de Craon, en Anjou[4].
-1427-1431 : fondation à Lille par Isabelle de Portugal, comtesse de Flandre, et à l’initiative de la confrérie de Saint-Jacques, d'un hôpital pour recevoir les pèlerins de Compostelle[5],[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À Hérat, au Khorassan, les médecins Mowlânâ Shams al-Din Mohammad Adam et Mowlânâ Nezâm al-Din Shirâzi Ṭabib soignent avec succès Baysonghor, fils de Shahrokh et petit-fils de Tamerlan.
+Fondation de l'Hospitale unum magnum et universale, aujourd'hui hôpital civil (it) de Brescia, en Lombardie.
+On compte au moins quatre cents enfants abandonnés dans les hôpitaux de San Gallo et de la Scala à Florence.
+Avant 1427 : destruction de l'hôpital de Craon, en Anjou.
+1427-1431 : fondation à Lille par Isabelle de Portugal, comtesse de Flandre, et à l’initiative de la confrérie de Saint-Jacques, d'un hôpital pour recevoir les pèlerins de Compostelle,.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1427_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1427_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Muhammad Ali Astarabadi (en), médecin persan, compose son commentaire sur le Petit Canon de la médecine (Qānūncha) de Jaghmini (en), épitomé du Canon d'Avicenne[7].
-Thibaud Louet rédige à Bologne un Traité de la peste (Tractatus de peste epidemiae) qui sera imprimé, en latin, dès le XVe siècle[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Muhammad Ali Astarabadi (en), médecin persan, compose son commentaire sur le Petit Canon de la médecine (Qānūncha) de Jaghmini (en), épitomé du Canon d'Avicenne.
+Thibaud Louet rédige à Bologne un Traité de la peste (Tractatus de peste epidemiae) qui sera imprimé, en latin, dès le XVe siècle.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1427_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1427_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1427 : Galeotto Marzio (mort vers 1497), médecin, astronome, poète, historien, philosophe et penseur scientifique italien[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1427 : Galeotto Marzio (mort vers 1497), médecin, astronome, poète, historien, philosophe et penseur scientifique italien.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1427_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1427_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,12 +624,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sigismond Albicus (né vers 1360), médecin, juriste et homme d’Église morave, professeur de médecine à Prague, docteur en droit à Padoue, médecin de Wenceslas IV, roi de Bohême, archevêque de Prague puis de Césarée, abbé de Wihrad, auteur d'une Praxis medica, d'un Regimen sanitatis et d'un Regimen pestilentiae imprimés en 1487[10].
-Galeazzo di Santa Sofia (en) (né à une date inconnue), professeur de médecine à Padoue et Bologne, appelé à Vienne pour y inaugurer l'enseignement de l'anatomie[11].
-Avant 1427 : Jean Pontii (né à une date inconnue), médecin de Géraud du Puy, évêque de Carcassonne[8].
-Vers 1427 : Enguerrand de Saint-Fuscien (né à une date inconnue), maître ès arts et en médecine à Paris, médecin du roi Charles VI[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sigismond Albicus (né vers 1360), médecin, juriste et homme d’Église morave, professeur de médecine à Prague, docteur en droit à Padoue, médecin de Wenceslas IV, roi de Bohême, archevêque de Prague puis de Césarée, abbé de Wihrad, auteur d'une Praxis medica, d'un Regimen sanitatis et d'un Regimen pestilentiae imprimés en 1487.
+Galeazzo di Santa Sofia (en) (né à une date inconnue), professeur de médecine à Padoue et Bologne, appelé à Vienne pour y inaugurer l'enseignement de l'anatomie.
+Avant 1427 : Jean Pontii (né à une date inconnue), médecin de Géraud du Puy, évêque de Carcassonne.
+Vers 1427 : Enguerrand de Saint-Fuscien (né à une date inconnue), maître ès arts et en médecine à Paris, médecin du roi Charles VI.</t>
         </is>
       </c>
     </row>
